--- a/biology/Histoire de la zoologie et de la botanique/Justin_O._Schmidt/Justin_O._Schmidt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Justin_O._Schmidt/Justin_O._Schmidt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justin Orvel Schmidt , né le 23 mars 1947 et mort le 18 février 2023[1],[2], est un entomologiste américain, coauteur de Insect Defenses: Adaptive Mechanisms and Strategies of Prey and Predators et créateur de l'échelle de la douleur de Schmidt de la pénibilité des piqûres d'insectes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justin Orvel Schmidt , né le 23 mars 1947 et mort le 18 février 2023 est un entomologiste américain, coauteur de Insect Defenses: Adaptive Mechanisms and Strategies of Prey and Predators et créateur de l'échelle de la douleur de Schmidt de la pénibilité des piqûres d'insectes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Échelle de Schmidt</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'échelle de Schmidt de la pénibilité des piqûres d'Hyménoptères (Justin O. Schmidt Pain Index) a été créée par Justin O. Schmidt, à partir de ses propres expérimentations des douleurs liées aux piqures d'hyménoptères [3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'échelle de Schmidt de la pénibilité des piqûres d'Hyménoptères (Justin O. Schmidt Pain Index) a été créée par Justin O. Schmidt, à partir de ses propres expérimentations des douleurs liées aux piqures d'hyménoptères ,.
 1,0 : les petites abeilles comme les Halictidae : douleur légère, éphémère.
 1,2 : la fourmi de feu (Solenopsis invicta) : douleur aiguë, soudaine, légèrement alarmante.
 1,8 : la fourmi d'acacia (Pseudomyrmex ferruginea (en)), endémique de l'Acacia cornigera : douleur rare, perçante, élevée.
@@ -553,7 +567,9 @@
           <t>Autres ordres d'insectes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'échelle de Schmidt ne concerne que les piqûres d'Hyménoptères. Cependant d'autres insectes provoquent des piqûres extrêmement douloureuses comme certaines punaises de la famille des Bélostomatidés (hémiptères).
 </t>
@@ -584,7 +600,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en-US) Justin O. Schmidt, Murray S. Blum, William L. Overal, Hemolytic activities of stinging insect venoms, 1983
 (en-US) Justin O. Schmidt, The Sting of the Wild, Johns Hopkins University Press, 2016  (ISBN 9781421419282)</t>
